--- a/fpga_timing.xlsx
+++ b/fpga_timing.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\2021_Spring\ECEN5863\Homework\HW3_Practical\DE1-SoC_v.5.1.2_HWrevF_SystemCD\Demonstrations\SOC_FPGA\my_first_hps-fpga\hps-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2526B85-1F78-462A-8851-ADB52CACDB01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B805E41-B8F4-4AB7-91E3-F6943F4CA8FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8071CDEC-C7B7-4150-B300-2C10832DAD2D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8071CDEC-C7B7-4150-B300-2C10832DAD2D}"/>
   </bookViews>
   <sheets>
     <sheet name="fpga_timing" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">fpga_timing!$A$1:$G$61</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">fpga_timing!$A$1:$H$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="10">
   <si>
     <t>Jan  1 00:01:20 de1soclinux my_first_hps: FPGA_timing</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>msec</t>
+  </si>
+  <si>
+    <t>FPGA Filter Time</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -121,14 +127,33 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -146,12 +171,1178 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FPGA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Transactions: Jitter</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>fpga_timing!$C$3:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>-9.9999999999999395E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2999999999999991E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000617E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1000000000000072E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0000000000000565E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.2999999999999991E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000072E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2000000000000031E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0000000000000105E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.9999999999995925E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.000000000000046E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000512E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.000000000000021E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.0000000000000052E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.000000000000021E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0000000000000157E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0000000000000157E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9.9999999999995925E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0000000000000565E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.1999999999999945E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.999999999999929E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.999999999999929E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.999999999999975E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2000000000000031E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0000000000000617E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.0000000000000617E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-9.9999999999995925E-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.999999999999929E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4999999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.0000000000000565E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4999999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0000000000000026E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.9999999999999645E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1000000000000072E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.0000000000000157E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-9.9999999999995925E-6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-8.9999999999999802E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1000000000000072E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.9999999999999238E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.0000000000000052E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.0000000000000565E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.000000000000021E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.0000000000000052E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-5.999999999999929E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.0000000000000565E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.000000000000046E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.8000000000000047E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0000000000000026E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.0000000000000105E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.0000000000000617E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-8.5999999999999965E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.0000000000000052E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.5999999999999955E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-9.9999999999995925E-6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2000000000000031E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.0000000000000105E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.4000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-9.9999999999999395E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-007F-4517-A40D-0101FAC3C5CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="624223744"/>
+        <c:axId val="624219808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="624223744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample No.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624219808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="624219808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>msec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624223744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>58102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88582</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F68781D7-8ABC-44C6-A3B8-F144C017948A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{894D8FC3-E5FE-4248-80D4-7B069201C02C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="9">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Jan  1 00:01:20 de1soclinux my_first_hps: FPGA_timing" tableColumnId="1"/>
       <queryTableField id="2" name="Total_Time" tableColumnId="2"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
       <queryTableField id="3" name="Req_Write" tableColumnId="3"/>
       <queryTableField id="4" name="Ack_Receive" tableColumnId="4"/>
       <queryTableField id="5" name="nReq_Write" tableColumnId="5"/>
@@ -163,16 +1354,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CB6E57C-7ABA-41A4-852A-B5941622BA67}" name="fpga_timing" displayName="fpga_timing" ref="A1:G61" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G61" xr:uid="{F4558253-C06E-4774-8832-47ED6383BAD7}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8EEE5CD7-6B44-4B57-8D04-521988457FC3}" uniqueName="1" name="Jan  1 00:01:20 de1soclinux my_first_hps: FPGA_timing" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{9A9C3DCC-088B-4B3E-8014-B32AA6DF0EAD}" uniqueName="2" name="Total_Time" queryTableFieldId="2" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CB6E57C-7ABA-41A4-852A-B5941622BA67}" name="fpga_timing" displayName="fpga_timing" ref="A1:H61" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H61" xr:uid="{F4558253-C06E-4774-8832-47ED6383BAD7}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{8EEE5CD7-6B44-4B57-8D04-521988457FC3}" uniqueName="1" name="Jan  1 00:01:20 de1soclinux my_first_hps: FPGA_timing" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9A9C3DCC-088B-4B3E-8014-B32AA6DF0EAD}" uniqueName="2" name="Total_Time" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{1FD69958-B6A0-45AA-87CB-B07252EABFDA}" uniqueName="8" name="Column1" queryTableFieldId="8" dataDxfId="0">
+      <calculatedColumnFormula>$B$37-fpga_timing[[#This Row],[Total_Time]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{CEEA2D1B-CA12-49BE-868D-B7114B47B617}" uniqueName="3" name="Req_Write" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{DEDF42C2-17C2-4BEB-B457-5A9C6EC0D989}" uniqueName="4" name="Ack_Receive" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{95416F69-BE38-4B86-A774-07C1FE3B0A20}" uniqueName="5" name="nReq_Write" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{D6D41BF5-4A3F-4A5F-B220-D2E091173787}" uniqueName="6" name="Final_Read" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{6A1482FE-AD2B-4B53-BB96-7F7D842EC9D5}" uniqueName="7" name="Units" queryTableFieldId="7" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{6A1482FE-AD2B-4B53-BB96-7F7D842EC9D5}" uniqueName="7" name="Units" queryTableFieldId="7" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -475,1431 +1669,1684 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940A015D-8EF3-4A20-918D-E90EEE6A46D4}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>1.1039999999999999E-2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-4.9599999999999991E-3</v>
+      </c>
+      <c r="D2">
         <v>6.7400000000000003E-3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2.0100000000000001E-3</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.17E-3</v>
       </c>
-      <c r="F2">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>6.1799999999999997E-3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-9.9999999999999395E-5</v>
+      </c>
+      <c r="D3">
         <v>2.0799999999999998E-3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.14E-3</v>
       </c>
-      <c r="F3">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE(B3:B61)</f>
+        <v>6.0783050847457625E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>6.2100000000000002E-3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-1.2999999999999991E-4</v>
+      </c>
+      <c r="D4">
         <v>2.1099999999999999E-3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.83E-3</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.15E-3</v>
       </c>
-      <c r="F4">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2">
         <v>6.0099999999999997E-3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>7.0000000000000617E-5</v>
+      </c>
+      <c r="D5">
         <v>1.9499999999999999E-3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.7899999999999999E-3</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.15E-3</v>
       </c>
-      <c r="F5">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>5.9699999999999996E-3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>1.1000000000000072E-4</v>
+      </c>
+      <c r="D6">
         <v>1.8699999999999999E-3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.14E-3</v>
       </c>
-      <c r="F6">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2">
         <v>6.0299999999999998E-3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>5.0000000000000565E-5</v>
+      </c>
+      <c r="D7">
         <v>1.9499999999999999E-3</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.8E-3</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.16E-3</v>
       </c>
-      <c r="F7">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2">
         <v>6.2100000000000002E-3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-1.2999999999999991E-4</v>
+      </c>
+      <c r="D8">
         <v>2.0899999999999998E-3</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.16E-3</v>
       </c>
-      <c r="F8">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2">
         <v>5.9699999999999996E-3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>1.1000000000000072E-4</v>
+      </c>
+      <c r="D9">
         <v>1.9E-3</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.7899999999999999E-3</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.16E-3</v>
       </c>
-      <c r="F9">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2">
         <v>5.96E-3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>1.2000000000000031E-4</v>
+      </c>
+      <c r="D10">
         <v>1.92E-3</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.7600000000000001E-3</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.16E-3</v>
       </c>
-      <c r="F10">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2">
         <v>6.0400000000000002E-3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>4.0000000000000105E-5</v>
+      </c>
+      <c r="D11">
         <v>1.92E-3</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1.83E-3</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.15E-3</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.14E-3</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2">
         <v>6.0899999999999999E-3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-9.9999999999995925E-6</v>
+      </c>
+      <c r="D12">
         <v>2.0100000000000001E-3</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1.81E-3</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.15E-3</v>
       </c>
-      <c r="F12">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="2">
         <v>6.0699999999999999E-3</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>1.000000000000046E-5</v>
+      </c>
+      <c r="D13">
         <v>1.9499999999999999E-3</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.16E-3</v>
       </c>
-      <c r="F13">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="2">
         <v>6.0499999999999998E-3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>3.0000000000000512E-5</v>
+      </c>
+      <c r="D14">
         <v>1.9300000000000001E-3</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.8500000000000001E-3</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.15E-3</v>
       </c>
-      <c r="F14">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>8.000000000000021E-5</v>
+      </c>
+      <c r="D15">
         <v>1.9300000000000001E-3</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.7899999999999999E-3</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.16E-3</v>
       </c>
-      <c r="F15">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="2">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-2.0000000000000052E-5</v>
+      </c>
+      <c r="D16">
         <v>2.0100000000000001E-3</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.81E-3</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.16E-3</v>
       </c>
-      <c r="F16">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>8.000000000000021E-5</v>
+      </c>
+      <c r="D17">
         <v>1.9499999999999999E-3</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1.7799999999999999E-3</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.15E-3</v>
       </c>
-      <c r="F17">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="2">
         <v>6.0200000000000002E-3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>6.0000000000000157E-5</v>
+      </c>
+      <c r="D18">
         <v>1.9300000000000001E-3</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1.81E-3</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1.16E-3</v>
       </c>
-      <c r="F18">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="2">
         <v>6.0200000000000002E-3</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>6.0000000000000157E-5</v>
+      </c>
+      <c r="D19">
         <v>1.9300000000000001E-3</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1.81E-3</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.16E-3</v>
       </c>
-      <c r="F19">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="2">
         <v>6.0899999999999999E-3</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-9.9999999999995925E-6</v>
+      </c>
+      <c r="D20">
         <v>1.9400000000000001E-3</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1.8799999999999999E-3</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1.15E-3</v>
       </c>
-      <c r="F20">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="2">
         <v>6.0299999999999998E-3</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>5.0000000000000565E-5</v>
+      </c>
+      <c r="D21">
         <v>1.9599999999999999E-3</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1.8E-3</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1.15E-3</v>
       </c>
-      <c r="F21">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="2">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-1.1999999999999945E-4</v>
+      </c>
+      <c r="D22">
         <v>2.0400000000000001E-3</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1.1800000000000001E-3</v>
       </c>
-      <c r="F22">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="2">
         <v>6.1399999999999996E-3</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-5.999999999999929E-5</v>
+      </c>
+      <c r="D23">
         <v>2.0500000000000002E-3</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1.81E-3</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1.16E-3</v>
       </c>
-      <c r="F23">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="2">
         <v>6.1399999999999996E-3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-5.999999999999929E-5</v>
+      </c>
+      <c r="D24">
         <v>2.0200000000000001E-3</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1.8500000000000001E-3</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1.15E-3</v>
       </c>
-      <c r="F24">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="2">
         <v>6.1500000000000001E-3</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-6.999999999999975E-5</v>
+      </c>
+      <c r="D25">
         <v>2.0200000000000001E-3</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1.8500000000000001E-3</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1.16E-3</v>
       </c>
-      <c r="F25">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="2">
         <v>5.96E-3</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>1.2000000000000031E-4</v>
+      </c>
+      <c r="D26">
         <v>1.98E-3</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1.16E-3</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1.14E-3</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="2">
         <v>6.0099999999999997E-3</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>7.0000000000000617E-5</v>
+      </c>
+      <c r="D27">
         <v>1.9400000000000001E-3</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1.8E-3</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1.15E-3</v>
       </c>
-      <c r="F27">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="2">
         <v>6.0099999999999997E-3</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>7.0000000000000617E-5</v>
+      </c>
+      <c r="D28">
         <v>1.9599999999999999E-3</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1.7700000000000001E-3</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1.16E-3</v>
       </c>
-      <c r="F28">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="2">
         <v>6.0899999999999999E-3</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-9.9999999999995925E-6</v>
+      </c>
+      <c r="D29">
         <v>1.9599999999999999E-3</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1.7799999999999999E-3</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1.1800000000000001E-3</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.17E-3</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="2">
         <v>6.1399999999999996E-3</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-5.999999999999929E-5</v>
+      </c>
+      <c r="D30">
         <v>1.97E-3</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1.89E-3</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.16E-3</v>
       </c>
-      <c r="F30">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="2">
         <v>5.9300000000000004E-3</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>1.4999999999999996E-4</v>
+      </c>
+      <c r="D31">
         <v>1.91E-3</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.74E-3</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.16E-3</v>
       </c>
-      <c r="F31">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="2">
         <v>6.0299999999999998E-3</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>5.0000000000000565E-5</v>
+      </c>
+      <c r="D32">
         <v>1.98E-3</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1.7799999999999999E-3</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1.15E-3</v>
       </c>
-      <c r="F32">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="2">
         <v>5.9300000000000004E-3</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>1.4999999999999996E-4</v>
+      </c>
+      <c r="D33">
         <v>1.9599999999999999E-3</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1.6900000000000001E-3</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1.16E-3</v>
       </c>
-      <c r="F33">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="2">
         <v>5.9800000000000001E-3</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>1.0000000000000026E-4</v>
+      </c>
+      <c r="D34">
         <v>1.9400000000000001E-3</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1.7600000000000001E-3</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1.16E-3</v>
       </c>
-      <c r="F34">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="2">
         <v>6.11E-3</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-2.9999999999999645E-5</v>
+      </c>
+      <c r="D35">
         <v>2.0200000000000001E-3</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1.82E-3</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>1.15E-3</v>
       </c>
-      <c r="F35">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="2">
         <v>5.9699999999999996E-3</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>1.1000000000000072E-4</v>
+      </c>
+      <c r="D36">
         <v>1.9E-3</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1.8E-3</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1.15E-3</v>
       </c>
-      <c r="F36">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="2">
         <v>6.0800000000000003E-3</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
         <v>1.9400000000000001E-3</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1.16E-3</v>
       </c>
-      <c r="F37">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="2">
         <v>6.0200000000000002E-3</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>6.0000000000000157E-5</v>
+      </c>
+      <c r="D38">
         <v>1.97E-3</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>1.7700000000000001E-3</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>1.16E-3</v>
       </c>
-      <c r="F38">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="2">
         <v>6.0899999999999999E-3</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-9.9999999999995925E-6</v>
+      </c>
+      <c r="D39">
         <v>1.9300000000000001E-3</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1.8799999999999999E-3</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>1.16E-3</v>
       </c>
-      <c r="F39">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="2">
         <v>6.1700000000000001E-3</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-8.9999999999999802E-5</v>
+      </c>
+      <c r="D40">
         <v>2.0600000000000002E-3</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>1.15E-3</v>
       </c>
-      <c r="F40">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="2">
         <v>5.9699999999999996E-3</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>1.1000000000000072E-4</v>
+      </c>
+      <c r="D41">
         <v>1.9E-3</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>1.8E-3</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>1.15E-3</v>
       </c>
-      <c r="F41">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="2">
         <v>6.1199999999999996E-3</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-3.9999999999999238E-5</v>
+      </c>
+      <c r="D42">
         <v>1.99E-3</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>1.8500000000000001E-3</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>1.16E-3</v>
       </c>
-      <c r="F42">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="2">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-2.0000000000000052E-5</v>
+      </c>
+      <c r="D43">
         <v>1.98E-3</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>1.83E-3</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>1.16E-3</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>1.1299999999999999E-3</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="2">
         <v>6.0299999999999998E-3</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>5.0000000000000565E-5</v>
+      </c>
+      <c r="D44">
         <v>1.9599999999999999E-3</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>1.7899999999999999E-3</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>1.16E-3</v>
       </c>
-      <c r="F44">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>8.000000000000021E-5</v>
+      </c>
+      <c r="D45">
         <v>1.9300000000000001E-3</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>1.8E-3</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>1.15E-3</v>
       </c>
-      <c r="F45">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="2">
         <v>6.0600000000000003E-3</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>2.0000000000000052E-5</v>
+      </c>
+      <c r="D46">
         <v>2.0100000000000001E-3</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>1.7700000000000001E-3</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>1.16E-3</v>
       </c>
-      <c r="F46">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="2">
         <v>6.1399999999999996E-3</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-5.999999999999929E-5</v>
+      </c>
+      <c r="D47">
         <v>2.0400000000000001E-3</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>1.83E-3</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>1.15E-3</v>
       </c>
-      <c r="F47">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="2">
         <v>6.0299999999999998E-3</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>5.0000000000000565E-5</v>
+      </c>
+      <c r="D48">
         <v>1.97E-3</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>1.7799999999999999E-3</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>1.16E-3</v>
       </c>
-      <c r="F48">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B49" s="2">
         <v>6.0699999999999999E-3</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>1.000000000000046E-5</v>
+      </c>
+      <c r="D49">
         <v>1.9599999999999999E-3</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>1.83E-3</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>1.16E-3</v>
       </c>
-      <c r="F49">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="2">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>1.8000000000000047E-4</v>
+      </c>
+      <c r="D50">
         <v>1.92E-3</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>1.15E-3</v>
       </c>
-      <c r="F50">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="2">
         <v>5.9800000000000001E-3</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>1.0000000000000026E-4</v>
+      </c>
+      <c r="D51">
         <v>1.98E-3</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>1.72E-3</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>1.16E-3</v>
       </c>
-      <c r="F51">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="2">
         <v>6.0400000000000002E-3</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>4.0000000000000105E-5</v>
+      </c>
+      <c r="D52">
         <v>1.9300000000000001E-3</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>1.15E-3</v>
       </c>
-      <c r="F52">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="2">
         <v>6.0099999999999997E-3</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>7.0000000000000617E-5</v>
+      </c>
+      <c r="D53">
         <v>1.9499999999999999E-3</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>1.7799999999999999E-3</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>1.16E-3</v>
       </c>
-      <c r="F53">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B54" s="2">
         <v>6.94E-3</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-8.5999999999999965E-4</v>
+      </c>
+      <c r="D54">
         <v>2.8E-3</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>1.1800000000000001E-3</v>
       </c>
-      <c r="F54">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="2">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-2.0000000000000052E-5</v>
+      </c>
+      <c r="D55">
         <v>2.0699999999999998E-3</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>1.75E-3</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>1.16E-3</v>
       </c>
-      <c r="F55">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B56" s="2">
         <v>6.2399999999999999E-3</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-1.5999999999999955E-4</v>
+      </c>
+      <c r="D56">
         <v>2.2300000000000002E-3</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>1.74E-3</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>1.15E-3</v>
       </c>
-      <c r="F56">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B57" s="2">
         <v>6.0899999999999999E-3</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-9.9999999999995925E-6</v>
+      </c>
+      <c r="D57">
         <v>1.9499999999999999E-3</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>1.16E-3</v>
       </c>
-      <c r="F57">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G57">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B58" s="2">
         <v>5.96E-3</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>1.2000000000000031E-4</v>
+      </c>
+      <c r="D58">
         <v>1.9300000000000001E-3</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>1.7600000000000001E-3</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>1.15E-3</v>
       </c>
-      <c r="F58">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G58">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B59" s="2">
         <v>6.0400000000000002E-3</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>4.0000000000000105E-5</v>
+      </c>
+      <c r="D59">
         <v>1.91E-3</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>1.8500000000000001E-3</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>1.16E-3</v>
       </c>
-      <c r="F59">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G59">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B60" s="2">
         <v>6.4200000000000004E-3</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-3.4000000000000002E-4</v>
+      </c>
+      <c r="D60">
         <v>2.31E-3</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>1.15E-3</v>
       </c>
-      <c r="F60">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B61" s="2">
         <v>6.1799999999999997E-3</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
+        <f>$B$37-fpga_timing[[#This Row],[Total_Time]]</f>
+        <v>-9.9999999999999395E-5</v>
+      </c>
+      <c r="D61">
         <v>2.0100000000000001E-3</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>1.9E-3</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>1.15E-3</v>
       </c>
-      <c r="F61">
-        <v>1.1199999999999999E-3</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
